--- a/603288海天味业/603288.xlsx
+++ b/603288海天味业/603288.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/000858五粮液/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayua/GitHub/stock/603288海天味业/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9B31F-9479-5641-A5DD-35F96B75FF14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6DCA50-34B7-3940-A7AD-44A653B4C876}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="-12520" windowWidth="51200" windowHeight="28340" xr2:uid="{8FF54A9F-FA3B-4D4B-A38D-39626F8E74F0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>年度财务</t>
   </si>
@@ -64,66 +64,6 @@
   </si>
   <si>
     <t>每股收益</t>
-  </si>
-  <si>
-    <t>2010Q1</t>
-  </si>
-  <si>
-    <t>2010Q2</t>
-  </si>
-  <si>
-    <t>2010Q3</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q1</t>
-  </si>
-  <si>
-    <t>2011Q2</t>
-  </si>
-  <si>
-    <t>2011Q3</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q1</t>
-  </si>
-  <si>
-    <t>2012Q2</t>
-  </si>
-  <si>
-    <t>2012Q3</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q1</t>
-  </si>
-  <si>
-    <t>2013Q2</t>
-  </si>
-  <si>
-    <t>2013Q3</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q1</t>
-  </si>
-  <si>
-    <t>2014Q2</t>
-  </si>
-  <si>
-    <t>2014Q3</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
   </si>
   <si>
     <t>2015Q1</t>
@@ -159,37 +99,10 @@
     <t>记录</t>
   </si>
   <si>
-    <t>63.68卖出1500，止损</t>
-  </si>
-  <si>
-    <t>67.92买入1500股。</t>
-  </si>
-  <si>
-    <t>大盘反弹，考虑买入白酒股。相比茅台，五粮液之前高点幅度更大，猜测有更大上涨空间。</t>
-  </si>
-  <si>
-    <t>分析：白酒行业利润率高，但增长有限，且竞争激烈。五粮液品牌知名，但利润过去增长一般，2017年利润增幅大</t>
-  </si>
-  <si>
-    <t>判断：未来业绩快速增长可能性低，但是股价可能随大盘波动而稳定上涨。</t>
-  </si>
-  <si>
     <t>比率分析</t>
   </si>
   <si>
     <t>2016Q1</t>
-  </si>
-  <si>
-    <t>69.98买入800股</t>
-  </si>
-  <si>
-    <t>价格突破新高</t>
-  </si>
-  <si>
-    <t>74.00买入1500股</t>
-  </si>
-  <si>
-    <t>震荡后上涨，加仓</t>
   </si>
   <si>
     <t>2017Q1</t>
@@ -225,7 +138,10 @@
     <t>2018Q4</t>
   </si>
   <si>
-    <t>白酒跌停，Q3收入增长低</t>
+    <t>业绩稳定增加。净利润年平均+20%</t>
+  </si>
+  <si>
+    <t>寻求价格低，或大幅增加的契机？</t>
   </si>
 </sst>
 </file>
@@ -235,8 +151,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -287,8 +203,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -433,29 +349,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>收入!$A$3:$A$9</c:f>
+              <c:f>收入!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2011</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2012</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2013</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2014</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -463,30 +373,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收入!$B$3:$B$9</c:f>
+              <c:f>收入!$B$3:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>203.5</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>272</c:v>
+                  <c:v>98.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>247.2</c:v>
+                  <c:v>112.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>210.1</c:v>
+                  <c:v>124.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>216.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>245.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>301.89999999999998</c:v>
+                  <c:v>145.80000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,29 +442,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>收入!$A$3:$A$9</c:f>
+              <c:f>收入!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2011</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2012</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2013</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2014</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -568,30 +466,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收入!$D$3:$D$9</c:f>
+              <c:f>收入!$D$3:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>51.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.2</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.099999999999994</c:v>
+                  <c:v>65.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.7</c:v>
+                  <c:v>69.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>84.5</c:v>
+                  <c:v>79.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,29 +535,23 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>收入!$A$3:$A$9</c:f>
+              <c:f>收入!$A$3:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2011</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2012</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2013</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2014</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2017</c:v>
                 </c:pt>
               </c:numCache>
@@ -673,30 +559,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收入!$F$3:$F$9</c:f>
+              <c:f>收入!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>61.6</c:v>
+                  <c:v>16.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.3</c:v>
+                  <c:v>20.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.7</c:v>
+                  <c:v>25.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.3</c:v>
+                  <c:v>28.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>96.7</c:v>
+                  <c:v>35.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,7 +673,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -991,7 +871,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>收入!$B$24</c:f>
+              <c:f>收入!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1026,115 +906,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>收入!$A$25:$A$60</c:f>
+              <c:f>收入!$A$23:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2010Q1</c:v>
+                  <c:v>2015Q1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010Q2</c:v>
+                  <c:v>2015Q2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2010Q3</c:v>
+                  <c:v>2015Q3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010Q4</c:v>
+                  <c:v>2015Q4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2011Q1</c:v>
+                  <c:v>2016Q1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2011Q2</c:v>
+                  <c:v>2016Q2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011Q3</c:v>
+                  <c:v>2016Q3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2011Q4</c:v>
+                  <c:v>2016Q4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2012Q1</c:v>
+                  <c:v>2017Q1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2012Q2</c:v>
+                  <c:v>2017Q2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2012Q3</c:v>
+                  <c:v>2017Q3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2012Q4</c:v>
+                  <c:v>2017Q4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2013Q1</c:v>
+                  <c:v>2018Q1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2013Q2</c:v>
+                  <c:v>2018Q2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013Q3</c:v>
+                  <c:v>2018Q3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2013Q4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2014Q1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2014Q2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2014Q3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2014Q4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2015Q1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2015Q2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2015Q3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2015Q4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2016Q1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2016Q2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2016Q3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2016Q4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2017Q1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2017Q2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2017Q3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2017Q4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2018Q1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2018Q2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2018Q3</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>2018Q4</c:v>
                 </c:pt>
               </c:strCache>
@@ -1142,114 +962,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收入!$B$25:$B$60</c:f>
+              <c:f>收入!$B$23:$B$38</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>44.9</c:v>
+                  <c:v>31.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.8</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.700000000000003</c:v>
+                  <c:v>31.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.4</c:v>
+                  <c:v>34.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.5</c:v>
+                  <c:v>27.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.5</c:v>
+                  <c:v>27.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.3</c:v>
+                  <c:v>40.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.2</c:v>
+                  <c:v>34.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.8</c:v>
+                  <c:v>34.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>86.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>68.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>55.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>67.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>49.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>34.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>59.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>67.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>65.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>88.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>68.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>101.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>63.6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>82.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>75.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>78.3</c:v>
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0">
+                  <c:v>39.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,7 +1122,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1560,7 +1320,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>收入!$C$24</c:f>
+              <c:f>收入!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1595,115 +1355,55 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>收入!$A$25:$A$60</c:f>
+              <c:f>收入!$A$23:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2010Q1</c:v>
+                  <c:v>2015Q1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010Q2</c:v>
+                  <c:v>2015Q2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2010Q3</c:v>
+                  <c:v>2015Q3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2010Q4</c:v>
+                  <c:v>2015Q4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2011Q1</c:v>
+                  <c:v>2016Q1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2011Q2</c:v>
+                  <c:v>2016Q2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2011Q3</c:v>
+                  <c:v>2016Q3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2011Q4</c:v>
+                  <c:v>2016Q4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2012Q1</c:v>
+                  <c:v>2017Q1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2012Q2</c:v>
+                  <c:v>2017Q2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2012Q3</c:v>
+                  <c:v>2017Q3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2012Q4</c:v>
+                  <c:v>2017Q4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2013Q1</c:v>
+                  <c:v>2018Q1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2013Q2</c:v>
+                  <c:v>2018Q2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2013Q3</c:v>
+                  <c:v>2018Q3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2013Q4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2014Q1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2014Q2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2014Q3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2014Q4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2015Q1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2015Q2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2015Q3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2015Q4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2016Q1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2016Q2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2016Q3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2016Q4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2017Q1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2017Q2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2017Q3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2017Q4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2018Q1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2018Q2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2018Q3</c:v>
-                </c:pt>
-                <c:pt idx="35">
                   <c:v>2018Q4</c:v>
                 </c:pt>
               </c:strCache>
@@ -1711,114 +1411,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收入!$C$25:$C$60</c:f>
+              <c:f>收入!$C$23:$C$38</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.40100000000000002</c:v>
+                  <c:v>0.48799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19500000000000001</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.29899999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>0.54800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.33800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0.38400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>0.35299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>0.80400000000000005</c:v>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.52600000000000002</c:v>
+                  <c:v>0.313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72599999999999998</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.36399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.186</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.29699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.28899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.34399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.41399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.76500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.25900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.443</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.94699999999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.36299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.52500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.71399999999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.3009999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.55100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.61399999999999999</c:v>
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.000">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.000">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.000">
+                  <c:v>0.32700000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,7 +1571,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3690,7 +3330,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3720,13 +3360,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>233680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>10160</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>193040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3756,13 +3396,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1351280</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>172720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>142240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4090,10 +3730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576BF4A-84D9-4F42-AC28-2084AB25FD8F}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4145,629 +3785,351 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3" s="6">
-        <v>203.5</v>
+        <v>2013</v>
+      </c>
+      <c r="B3">
+        <v>84</v>
       </c>
       <c r="C3" s="4">
-        <v>0.309</v>
-      </c>
-      <c r="D3" s="6">
-        <v>69</v>
+        <v>0.188</v>
+      </c>
+      <c r="D3">
+        <v>51.1</v>
       </c>
       <c r="E3" s="4">
-        <v>0.41799999999999998</v>
+        <v>0.151</v>
       </c>
       <c r="F3">
-        <v>61.6</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G3" s="4">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1.6220000000000001</v>
+        <v>0.33</v>
+      </c>
+      <c r="H3">
+        <v>1.1299999999999999</v>
       </c>
       <c r="I3" s="4">
-        <v>0.40100000000000002</v>
+        <v>-0.33500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4" s="6">
-        <v>272</v>
+        <v>2014</v>
+      </c>
+      <c r="B4">
+        <v>98.2</v>
       </c>
       <c r="C4" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="D4" s="6">
-        <v>80.2</v>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D4">
+        <v>58.5</v>
       </c>
       <c r="E4" s="4">
-        <v>0.16200000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F4">
-        <v>99.3</v>
+        <v>20.9</v>
       </c>
       <c r="G4" s="4">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="H4" s="5">
-        <v>2.617</v>
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.78</v>
       </c>
       <c r="I4" s="4">
-        <v>0.61299999999999999</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="6">
-        <v>247.2</v>
+        <v>2015</v>
+      </c>
+      <c r="B5">
+        <v>112.9</v>
       </c>
       <c r="C5" s="4">
-        <v>-9.0999999999999998E-2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>66.099999999999994</v>
+        <v>0.15</v>
+      </c>
+      <c r="D5">
+        <v>65.599999999999994</v>
       </c>
       <c r="E5" s="4">
-        <v>-0.17499999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="F5">
-        <v>79.7</v>
+        <v>25.1</v>
       </c>
       <c r="G5" s="4">
-        <v>-0.19700000000000001</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2.1</v>
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.93</v>
       </c>
       <c r="I5" s="4">
-        <v>-0.19800000000000001</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="6">
-        <v>210.1</v>
+        <v>2016</v>
+      </c>
+      <c r="B6">
+        <v>124.6</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.15</v>
-      </c>
-      <c r="D6" s="6">
-        <v>57.7</v>
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D6">
+        <v>69.8</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.127</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F6">
-        <v>58.3</v>
+        <v>28.4</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.26800000000000002</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1.54</v>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="H6">
+        <v>1.05</v>
       </c>
       <c r="I6" s="4">
-        <v>-0.26700000000000002</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7" s="6">
-        <v>216.6</v>
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>145.80000000000001</v>
       </c>
       <c r="C7" s="4">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>66.7</v>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D7">
+        <v>79.2</v>
       </c>
       <c r="E7" s="4">
-        <v>0.156</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="F7">
-        <v>61.8</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="G7" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1.627</v>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.31</v>
       </c>
       <c r="I7" s="4">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="6">
-        <v>245.4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="D8" s="6">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="E8" s="4">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="F8">
-        <v>67.8</v>
-      </c>
-      <c r="G8" s="4">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1.7869999999999999</v>
-      </c>
-      <c r="I8" s="4">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="6">
-        <v>301.89999999999998</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.23</v>
-      </c>
-      <c r="D9" s="6">
-        <v>84.5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.155</v>
-      </c>
-      <c r="F9">
-        <v>96.7</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2.548</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="19">
-      <c r="A23" s="7" t="s">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19">
+      <c r="A21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>31.9</v>
+      </c>
+      <c r="C23">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>10</v>
+      <c r="A24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>24.5</v>
+      </c>
+      <c r="C24">
+        <v>0.222</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="6">
-        <v>44.9</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.40100000000000002</v>
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>24.8</v>
+      </c>
+      <c r="C25">
+        <v>0.187</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6">
-        <v>30.8</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.19500000000000001</v>
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>31.7</v>
+      </c>
+      <c r="C26">
+        <v>0.247</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="6">
-        <v>39</v>
-      </c>
-      <c r="C27" s="5">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C27">
         <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="6">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0.26300000000000001</v>
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>27.4</v>
+      </c>
+      <c r="C28">
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6">
-        <v>62.4</v>
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>27.9</v>
       </c>
       <c r="C29">
-        <v>0.54800000000000004</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="6">
-        <v>43.5</v>
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>0.33800000000000002</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="6">
-        <v>50.5</v>
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>40.1</v>
       </c>
       <c r="C31">
-        <v>0.38400000000000001</v>
+        <v>0.36099999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="6">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>34.299999999999997</v>
       </c>
       <c r="C32">
-        <v>0.35299999999999998</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="6">
-        <v>82.3</v>
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>34.1</v>
       </c>
       <c r="C33">
-        <v>0.80400000000000005</v>
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="6">
-        <v>68.2</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0.52600000000000002</v>
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>37.4</v>
+      </c>
+      <c r="C34">
+        <v>0.36699999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B35" s="6">
-        <v>60.8</v>
+        <v>46.9</v>
       </c>
       <c r="C35" s="5">
-        <v>0.72599999999999998</v>
+        <v>0.44500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B36" s="6">
-        <v>60.7</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C36" s="5">
-        <v>0.56100000000000005</v>
+        <v>0.38700000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B37" s="6">
-        <v>86.8</v>
+        <v>39.9</v>
       </c>
       <c r="C37" s="5">
-        <v>0.95599999999999996</v>
+        <v>0.32700000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="6">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0.56999999999999995</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="6">
-        <v>36.5</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0.34599999999999997</v>
-      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="6">
-        <v>55.5</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0.22900000000000001</v>
-      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="6">
-        <v>67.2</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0.69</v>
-      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="6">
-        <v>49.4</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="6">
-        <v>34.1</v>
-      </c>
-      <c r="C43" s="5">
-        <v>0.186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="6">
-        <v>59.4</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="6">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="C45" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="6">
-        <v>44.8</v>
-      </c>
-      <c r="C46" s="5">
-        <v>0.28899999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="6">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="C47" s="5">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B48" s="6">
-        <v>65.3</v>
-      </c>
-      <c r="C48" s="5">
-        <v>0.41399999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6">
-        <v>88.3</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="6">
-        <v>44.3</v>
-      </c>
-      <c r="C50" s="5">
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="6">
-        <v>44.4</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="6">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="6">
-        <v>101.6</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0.94699999999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="6">
-        <v>54.6</v>
-      </c>
-      <c r="C54" s="5">
-        <v>0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="6">
-        <v>63.6</v>
-      </c>
-      <c r="C55" s="5">
-        <v>0.52500000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="6">
-        <v>82.1</v>
-      </c>
-      <c r="C56" s="5">
-        <v>0.71399999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="6">
-        <v>139</v>
-      </c>
-      <c r="C57" s="5">
-        <v>1.3009999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="6">
-        <v>75.2</v>
-      </c>
-      <c r="C58" s="5">
-        <v>0.55100000000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="6">
-        <v>78.3</v>
-      </c>
-      <c r="C59" s="5">
-        <v>0.61399999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" s="6"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="6"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" s="6"/>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="C64" s="5"/>
+      <c r="C42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4780,7 +4142,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4792,10 +4154,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4803,25 +4165,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1">
-        <v>43367</v>
+        <v>43527</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4829,25 +4191,25 @@
         <v>2015</v>
       </c>
       <c r="B3" s="4">
-        <v>0.38100000000000001</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C3" s="4">
-        <v>0.158</v>
-      </c>
-      <c r="D3">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="E3">
-        <v>147.80000000000001</v>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D3" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="G3" s="6">
-        <v>4.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4855,25 +4217,25 @@
         <v>2016</v>
       </c>
       <c r="B4" s="4">
-        <v>0.376</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C4" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="D4">
-        <v>2.65</v>
-      </c>
-      <c r="E4">
-        <v>144.1</v>
+        <v>0.254</v>
+      </c>
+      <c r="D4" s="6">
+        <v>13.3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="G4" s="6">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4881,44 +4243,36 @@
         <v>2017</v>
       </c>
       <c r="B5" s="4">
-        <v>0.443</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="C5" s="4">
-        <v>0.189</v>
-      </c>
-      <c r="D5">
-        <v>2.86</v>
-      </c>
-      <c r="E5">
-        <v>136.6</v>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.1</v>
       </c>
       <c r="F5" s="6">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="G5" s="6">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="K6" s="1">
-        <v>43369</v>
-      </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="F9" s="6"/>
@@ -4927,16 +4281,11 @@
     <row r="10" spans="1:11">
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="K10" s="1">
-        <v>43381</v>
-      </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="F12" s="6"/>
@@ -4945,16 +4294,11 @@
     <row r="13" spans="1:11">
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="K13" s="1">
-        <v>43402</v>
-      </c>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="K14" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="F15" s="6"/>
@@ -4963,23 +4307,15 @@
     <row r="16" spans="1:11">
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="K16" s="1">
-        <v>43521</v>
-      </c>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="6:11">
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="K17" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="18" spans="6:11">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="K18" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="19" spans="6:11">
       <c r="F19" s="6"/>
@@ -4988,23 +4324,15 @@
     <row r="20" spans="6:11">
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="K20" s="1">
-        <v>43525</v>
-      </c>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="6:11">
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="K21" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="22" spans="6:11">
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="K22" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="23" spans="6:11">
       <c r="F23" s="6"/>
